--- a/data_xlsx/SHIBOR_3个月.xlsx
+++ b/data_xlsx/SHIBOR_3个月.xlsx
@@ -33114,8 +33114,40 @@
         <v>2.101</v>
       </c>
     </row>
+    <row r="4130">
+      <c r="A4130" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B4130" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
     <row r="4131">
-      <c r="A4131" s="3" t="inlineStr">
+      <c r="A4131" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B4131" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B4132" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B4133" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
